--- a/foundation/Data/폐업자명단.xlsx
+++ b/foundation/Data/폐업자명단.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KoreaScoring\Desktop\국가기관\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seokwon\OneDrive\문서\UiPath\foundation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FEC267-999E-4071-A254-5376F64ED600}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FFAD01-131C-4AFD-B563-D276359A2CAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{14090825-A02A-4336-8D87-6915DE380FE9}"/>
   </bookViews>
@@ -20,28 +20,147 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>사업자등록번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사업자등록상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>휴폐업일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>조회일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>899-76-00079</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2019-06-30) 입니다.</t>
+  </si>
+  <si>
+    <t>899-77-00057</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2019-05-21) 입니다.</t>
+  </si>
+  <si>
+    <t>101-05-40144</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2018-02-28) 입니다.</t>
+  </si>
+  <si>
+    <t>101-08-63774</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2018-03-07) 입니다.</t>
+  </si>
+  <si>
+    <t>101-11-27195</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2018-05-31) 입니다.</t>
+  </si>
+  <si>
+    <t>101-12-30533</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2018-01-16) 입니다.</t>
+  </si>
+  <si>
+    <t>101-12-68892</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2018-03-01) 입니다._x000D_
+* 과세유형 전환된 날짜는 2016년 07월 01일 입니다.</t>
+  </si>
+  <si>
+    <t>101-12-75340</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2018-06-18) 입니다.</t>
+  </si>
+  <si>
+    <t>101-16-52137</t>
+  </si>
+  <si>
+    <t>101-21-51049</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2018-06-30) 입니다.</t>
+  </si>
+  <si>
+    <t>102-03-61041</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2018-02-02) 입니다.</t>
+  </si>
+  <si>
+    <t>102-15-51153</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2018-02-01) 입니다.</t>
+  </si>
+  <si>
+    <t>101-02-69515</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 간이과세자, 폐업일자:2019-09-30) 입니다.</t>
+  </si>
+  <si>
+    <t>101-02-78881</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2019-09-30) 입니다.</t>
+  </si>
+  <si>
+    <t>101-04-06872</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2017-09-28) 입니다.</t>
+  </si>
+  <si>
+    <t>101-04-17419</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 간이과세자, 폐업일자:2018-11-15) 입니다.</t>
+  </si>
+  <si>
+    <t>101-04-21228</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2019-01-01) 입니다._x000D_
+* 과세유형 전환된 날짜는 2013년 10월 01일 입니다.</t>
+  </si>
+  <si>
+    <t>101-04-25563</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2017-08-25) 입니다._x000D_
+* 과세유형 전환된 날짜는 2013년 07월 01일 입니다.</t>
+  </si>
+  <si>
+    <t>101-04-98936</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2016-11-30) 입니다.</t>
+  </si>
+  <si>
+    <t>101-05-35618</t>
+  </si>
+  <si>
+    <t>폐업자 (과세유형: 부가가치세 일반과세자, 폐업일자:2017-07-24) 입니다.</t>
   </si>
 </sst>
 </file>
@@ -115,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -130,6 +249,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EB72AF-3230-45C7-A8D7-E45B8A00E28B}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,76 +594,284 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43646</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43883</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43606</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43883</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43159</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43883</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43166</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43883</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43251</v>
+      </c>
+      <c r="D6" s="3">
+        <v>43883</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="D8" s="3"/>
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43116</v>
+      </c>
+      <c r="D7" s="3">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="82.5">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43160</v>
+      </c>
+      <c r="D8" s="3">
+        <v>43883</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43269</v>
+      </c>
+      <c r="D9" s="3">
+        <v>43883</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43159</v>
+      </c>
+      <c r="D10" s="3">
+        <v>43883</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43281</v>
+      </c>
+      <c r="D11" s="3">
+        <v>43883</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43133</v>
+      </c>
+      <c r="D12" s="3">
+        <v>43883</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43132</v>
+      </c>
+      <c r="D13" s="3">
+        <v>43883</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43738</v>
+      </c>
+      <c r="D14" s="3">
+        <v>43883</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43738</v>
+      </c>
+      <c r="D15" s="3">
+        <v>43883</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43006</v>
+      </c>
+      <c r="D16" s="3">
+        <v>43883</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4"/>
-      <c r="D19" s="3"/>
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43419</v>
+      </c>
+      <c r="D17" s="3">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="82.5">
+      <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43466</v>
+      </c>
+      <c r="D18" s="3">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="82.5">
+      <c r="A19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="3">
+        <v>42972</v>
+      </c>
+      <c r="D19" s="3">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3">
+        <v>42704</v>
+      </c>
+      <c r="D20" s="3">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3">
+        <v>42940</v>
+      </c>
+      <c r="D21" s="3">
+        <v>43883</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
